--- a/Planification Algorithms.xlsx
+++ b/Planification Algorithms.xlsx
@@ -1,41 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisced/Code/School/UP/OS/Planification_Algorithms/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4A930-27D5-6B4A-B130-DBFE57257AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="31580" yWindow="3180" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Nombre del Proceso</t>
+  </si>
+  <si>
+    <t>Tiempo de Llegada</t>
+  </si>
+  <si>
+    <t>Duración de la Ráfaga</t>
+  </si>
+  <si>
+    <t>Quantum</t>
+  </si>
+  <si>
+    <t>Proceso 1</t>
+  </si>
+  <si>
+    <t>Proceso 2</t>
+  </si>
+  <si>
+    <t>Proceso 3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +90,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,65 +429,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Nombre del Proceso</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Tiempo de Llegada</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Duración de la Ráfaga</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Quantum</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Proceso 1</v>
-      </c>
-      <c r="B2" t="str">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f>VALUE(3)</f>
         <v>3</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
+        <f>VALUE(5)</f>
         <v>5</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>VALUE(1)</f>
         <v>1</v>
       </c>
+      <c r="C3">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Proceso 2</v>
-      </c>
-      <c r="B3" t="str">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>VALUE(1)</f>
         <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Proceso 3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>2</v>
-      </c>
-      <c r="C4" t="str">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4" xr:uid="{CA1BA748-6D17-584F-89D3-3E084DC2E4AB}">
+      <formula1>OR(D3=2, D3=3, D3=4)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError sqref="A1:D1 A4 A2 A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Planification Algorithms.xlsx
+++ b/Planification Algorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisced/Code/School/UP/OS/Planification_Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4A930-27D5-6B4A-B130-DBFE57257AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EDEC67-559A-D74C-8CEC-E27B15EB373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31580" yWindow="3180" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nombre del Proceso</t>
   </si>
@@ -47,13 +47,16 @@
     <t>Quantum</t>
   </si>
   <si>
-    <t>Proceso 1</t>
-  </si>
-  <si>
-    <t>Proceso 2</t>
-  </si>
-  <si>
-    <t>Proceso 3</t>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>VsCode</t>
+  </si>
+  <si>
+    <t>Moodle</t>
+  </si>
+  <si>
+    <t>Steam</t>
   </si>
 </sst>
 </file>
@@ -430,17 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -467,12 +468,12 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <f>VALUE(5)</f>
-        <v>5</v>
+        <f>VALUE(1)</f>
+        <v>1</v>
       </c>
       <c r="D2">
-        <f>VALUE(2)</f>
-        <v>2</v>
+        <f>VALUE(1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -484,8 +485,8 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>VALUE(4)</f>
-        <v>4</v>
+        <f>VALUE(3)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -497,19 +498,27 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>VALUE(1)</f>
-        <v>1</v>
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f>VALUE(2)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4" xr:uid="{CA1BA748-6D17-584F-89D3-3E084DC2E4AB}">
-      <formula1>OR(D3=2, D3=3, D3=4)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 A4 A2 A3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1 A4:A5 A2 A3 D3 D4:D5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Planification Algorithms.xlsx
+++ b/Planification Algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisced/Code/School/UP/OS/Planification_Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EDEC67-559A-D74C-8CEC-E27B15EB373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9699A8-067D-4146-A25B-0D6B0B3E0A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nombre del Proceso</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Moodle</t>
-  </si>
-  <si>
-    <t>Steam</t>
   </si>
 </sst>
 </file>
@@ -433,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,8 +469,8 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>VALUE(1)</f>
-        <v>1</v>
+        <f>VALUE(2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -502,23 +499,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <f>VALUE(5)</f>
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <f>VALUE(2)</f>
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 A4:A5 A2 A3 D3 D4:D5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1 A4 A2 A3 D3 D4:D5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>